--- a/biology/Zoologie/Dendroaspis_polylepis/Dendroaspis_polylepis.xlsx
+++ b/biology/Zoologie/Dendroaspis_polylepis/Dendroaspis_polylepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mamba noir
-Dendroaspis polylepis est une espèce de serpents de la famille des Elapidae[1]. En français, il est appelé Mamba noir.
+Dendroaspis polylepis est une espèce de serpents de la famille des Elapidae. En français, il est appelé Mamba noir.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre, :
 au Sénégal, en Guinée, en Guinée-Bissau, au Mali, en Côte d'Ivoire, au Burkina Faso, au Cameroun, au Tchad et en Centrafrique ;
 en Éthiopie, en Érythrée, à Djibouti, en Somalie, au Kenya, en Ouganda, en Tanzanie, au Gabon en République démocratique du Congo et au Congo Brazzaville  ;
 en Angola, en Zambie, en Namibie, au Botswana, au Zimbabwe, au Malawi, au Mozambique, en Eswatini et en Afrique du Sud.</t>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent très venimeux doit son nom à la coloration noire de l'intérieur de sa bouche. La couleur de sa peau varie du jaune-vert au gris métallique, parfois noire. Ce serpent venimeux compte parmi les plus grands et les plus répandus en Afrique.
 Sa taille varie de 3,50 à 5 mètres de long. Il peut atteindre une vitesse de 23 km/h. Il est doté d'une grande agilité sur terre ou dans les arbres de la savane arborée où il vit. 
@@ -578,11 +594,13 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un animal diurne qui apprécie les zones boisées ou rocheuses et chasse activement. 
-Fait rare chez les ophidiens, il a un comportement territorial. Il peut se montrer agressif. Il lui arrive de poursuivre son adversaire et d'infliger plusieurs coups de crochets lorsqu'il se sent menacé ou défend son territoire[3]. Les morsures de mamba noir sur l'homme sont cependant bien moins fréquentes que celles d'autres espèces de serpents, car cette espèce n'est pas abondante et sa rapidité à la fuite lui permet d'éviter la plupart des rencontres rapprochées accidentelles, à la différence de la vipère heurtante par exemple qui est responsable d'un nombre considérable de morsures en Afrique.
-C’est le serpent le plus rapide des espèces connues, capable de se déplacer de 4,32  à   5,4 m/s soit entre 16  et   20 km/h[4].
+Fait rare chez les ophidiens, il a un comportement territorial. Il peut se montrer agressif. Il lui arrive de poursuivre son adversaire et d'infliger plusieurs coups de crochets lorsqu'il se sent menacé ou défend son territoire. Les morsures de mamba noir sur l'homme sont cependant bien moins fréquentes que celles d'autres espèces de serpents, car cette espèce n'est pas abondante et sa rapidité à la fuite lui permet d'éviter la plupart des rencontres rapprochées accidentelles, à la différence de la vipère heurtante par exemple qui est responsable d'un nombre considérable de morsures en Afrique.
+C’est le serpent le plus rapide des espèces connues, capable de se déplacer de 4,32  à   5,4 m/s soit entre 16  et   20 km/h.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mamba noir se nourrit d'oiseaux, de damans, d'écureuils, de chauve-souris et à l'occasion des œufs et même d'autres serpents[5]. Lorsqu'il a trouvé une proie, il lui délivre une seule morsure et se replie, laissant le temps à la neurotoxine de son venin de la paralyser. Il a aussi une digestion relativement rapide aidée par la toxicité de son venin, par exemple un rat est digéré en une heure.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mamba noir se nourrit d'oiseaux, de damans, d'écureuils, de chauve-souris et à l'occasion des œufs et même d'autres serpents. Lorsqu'il a trouvé une proie, il lui délivre une seule morsure et se replie, laissant le temps à la neurotoxine de son venin de la paralyser. Il a aussi une digestion relativement rapide aidée par la toxicité de son venin, par exemple un rat est digéré en une heure.
 </t>
         </is>
       </c>
@@ -642,12 +662,14 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le venin du mamba noir contient des neurotoxines et des cardiotoxines. Sa morsure injecte en général 100 à 120 mg de venin, 400 mg peuvent être injectés[6], 10 à 15 mg de son venin étant mortel pour un homme adulte. Par conséquent, la quantité de venin injectée en une seule morsure suffirait en théorie pour tuer entre 10 et 40 hommes.
-Une personne envenimée peut perdre la capacité de parler en 20 minutes, et sera probablement comateuse une heure après la morsure. La mort survient le plus souvent dans les six heures après l'injection[7] ou encore dans une fourchette de 7 à 15 heures[6].
-La létalité de sa morsure dépend d'un certain nombre de facteurs, tels que la quantité de venin injectée et l'emplacement de la morsure. Cependant, si le venin atteint la circulation sanguine rapidement, les risques de mortalité augmentent drastiquement. Le premier symptôme d'une morsure est une douleur locale dans la zone de la morsure, cependant moins douloureuse que celle des serpents disposant d'un venin chargé d'hémotoxines. Puis la victime sent des fourmillements à ses extrémités, cligne des yeux, sa vision se rétrécit, elle se met à transpirer et à saliver de manière excessive, puis perd le contrôle de ses muscles (d'abord la bouche et la langue). Si la victime ne reçoit pas de soins appropriés très rapidement, les symptômes progressent, et elle éprouve alors des nausées, perd son souffle, est confuse, a des problèmes pour respirer et se paralyse. Elle peut éventuellement être prise de convulsions, d'un arrêt respiratoire, d'un coma, ou mourir de la suffocation résultant de la paralysie des muscles respiratoires. Bien qu'avec un traitement il soit possible de soigner 99 % des victimes, si la morsure n'est pas traitée, le taux de mortalité est proche de 100 %[6]. La paralysie causée par le venin n'est pas permanente, si bien que la victime a besoin de respirer artificiellement jusqu'à ce que son propre système immunitaire ait complètement nettoyé le sang de toute trace du venin.
-Le venin de ce serpent contient des peptides (dénommées mambalgines) qui possèdent des propriétés analgésiques sans neurotoxicité sur la souris. Les principes de fonctionnement de la douleur étant semblables chez la souris et l'homme, les scientifiques pensent pouvoir arriver à produire des anti-douleurs aussi puissants que les dérivés morphiniques, sans les effets secondaires de ceux-ci[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le venin du mamba noir contient des neurotoxines et des cardiotoxines. Sa morsure injecte en général 100 à 120 mg de venin, 400 mg peuvent être injectés, 10 à 15 mg de son venin étant mortel pour un homme adulte. Par conséquent, la quantité de venin injectée en une seule morsure suffirait en théorie pour tuer entre 10 et 40 hommes.
+Une personne envenimée peut perdre la capacité de parler en 20 minutes, et sera probablement comateuse une heure après la morsure. La mort survient le plus souvent dans les six heures après l'injection ou encore dans une fourchette de 7 à 15 heures.
+La létalité de sa morsure dépend d'un certain nombre de facteurs, tels que la quantité de venin injectée et l'emplacement de la morsure. Cependant, si le venin atteint la circulation sanguine rapidement, les risques de mortalité augmentent drastiquement. Le premier symptôme d'une morsure est une douleur locale dans la zone de la morsure, cependant moins douloureuse que celle des serpents disposant d'un venin chargé d'hémotoxines. Puis la victime sent des fourmillements à ses extrémités, cligne des yeux, sa vision se rétrécit, elle se met à transpirer et à saliver de manière excessive, puis perd le contrôle de ses muscles (d'abord la bouche et la langue). Si la victime ne reçoit pas de soins appropriés très rapidement, les symptômes progressent, et elle éprouve alors des nausées, perd son souffle, est confuse, a des problèmes pour respirer et se paralyse. Elle peut éventuellement être prise de convulsions, d'un arrêt respiratoire, d'un coma, ou mourir de la suffocation résultant de la paralysie des muscles respiratoires. Bien qu'avec un traitement il soit possible de soigner 99 % des victimes, si la morsure n'est pas traitée, le taux de mortalité est proche de 100 %. La paralysie causée par le venin n'est pas permanente, si bien que la victime a besoin de respirer artificiellement jusqu'à ce que son propre système immunitaire ait complètement nettoyé le sang de toute trace du venin.
+Le venin de ce serpent contient des peptides (dénommées mambalgines) qui possèdent des propriétés analgésiques sans neurotoxicité sur la souris. Les principes de fonctionnement de la douleur étant semblables chez la souris et l'homme, les scientifiques pensent pouvoir arriver à produire des anti-douleurs aussi puissants que les dérivés morphiniques, sans les effets secondaires de ceux-ci.
 </t>
         </is>
       </c>
@@ -676,9 +698,11 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mamba noir a peu de prédateurs naturels à l'âge adulte. Néanmoins, il peut être la proie des mangoustes[9], du ratel, d'autres serpents ou de rapaces comme le Messager sagittaire et le Circaète brun[10]. Les juvéniles peuvent également être la proie du Calao à bec rouge, du serpent Gonionotophis capensis ou même de poissons comme le Mérou géant[11].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mamba noir a peu de prédateurs naturels à l'âge adulte. Néanmoins, il peut être la proie des mangoustes, du ratel, d'autres serpents ou de rapaces comme le Messager sagittaire et le Circaète brun. Les juvéniles peuvent également être la proie du Calao à bec rouge, du serpent Gonionotophis capensis ou même de poissons comme le Mérou géant.
 </t>
         </is>
       </c>
@@ -707,9 +731,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 mai 2014)[12] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 mai 2014) :
 Dendroaspis polylepis polylepis (Günther, 1864),
 Dendroaspis polylepis antinorii (Peters, 1873).</t>
         </is>
